--- a/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>266696</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>234557</v>
+        <v>235036</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>294425</v>
+        <v>297231</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6614255029638761</v>
+        <v>0.6614255029638763</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5817192254979684</v>
+        <v>0.5829053774996888</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7301961824194012</v>
+        <v>0.7371536879174156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -762,19 +762,19 @@
         <v>201187</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>176268</v>
+        <v>175098</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>226813</v>
+        <v>226636</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5549806598129395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4862417458732233</v>
+        <v>0.4830127849450066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6256703787364759</v>
+        <v>0.6251811452235623</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>230</v>
@@ -783,19 +783,19 @@
         <v>467883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>428770</v>
+        <v>429008</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>507592</v>
+        <v>506895</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6110320973185018</v>
+        <v>0.6110320973185017</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5599524053830832</v>
+        <v>0.5602627440526017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6628897201708954</v>
+        <v>0.661979463029189</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>110049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83461</v>
+        <v>84168</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>140413</v>
+        <v>141691</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2729302425793087</v>
+        <v>0.2729302425793088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2069893467384688</v>
+        <v>0.2087416334291232</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3482339393616443</v>
+        <v>0.3514031534516116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -833,19 +833,19 @@
         <v>126261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102756</v>
+        <v>103690</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>151795</v>
+        <v>152624</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3482947908629375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.283456433404456</v>
+        <v>0.2860327650776104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4187305733766084</v>
+        <v>0.4210185712410593</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -854,19 +854,19 @@
         <v>236310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>200669</v>
+        <v>200321</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>275323</v>
+        <v>274340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.308609530936679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2620642362509283</v>
+        <v>0.2616091492626749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3595578780212765</v>
+        <v>0.3582745378741669</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>26469</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13931</v>
+        <v>12606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48136</v>
+        <v>46110</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06564425445681495</v>
+        <v>0.06564425445681496</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03454874451226473</v>
+        <v>0.03126429156158207</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1193796538267092</v>
+        <v>0.1143551232974133</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -904,19 +904,19 @@
         <v>31665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19161</v>
+        <v>19355</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48855</v>
+        <v>48845</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08734925168087017</v>
+        <v>0.08734925168087018</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05285485148062491</v>
+        <v>0.0533915629923318</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1347676781685743</v>
+        <v>0.1347395598979056</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -925,19 +925,19 @@
         <v>58134</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40924</v>
+        <v>39196</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84894</v>
+        <v>84162</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07591989296842019</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05344414364865188</v>
+        <v>0.05118781788665668</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1108674218295436</v>
+        <v>0.1099119123534305</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11123</v>
+        <v>10455</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00937529764325272</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03068390704008548</v>
+        <v>0.02884078033800743</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10428</v>
+        <v>10247</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.004438478776399052</v>
+        <v>0.004438478776399051</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01361891304251671</v>
+        <v>0.01338204761408154</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>228998</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201259</v>
+        <v>198333</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>256877</v>
+        <v>254662</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4816988096443527</v>
+        <v>0.4816988096443528</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.423350292309417</v>
+        <v>0.4171939879932804</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5403413310090507</v>
+        <v>0.5356825454514066</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>205</v>
@@ -1113,19 +1113,19 @@
         <v>233189</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>211788</v>
+        <v>207490</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>257698</v>
+        <v>257408</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.468448297790564</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4254553047091094</v>
+        <v>0.416821820558513</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5176834593078972</v>
+        <v>0.5171000368698343</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>341</v>
@@ -1134,19 +1134,19 @@
         <v>462188</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>424758</v>
+        <v>427646</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>498756</v>
+        <v>501698</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4749210997013433</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.436460517713966</v>
+        <v>0.4394277006432333</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.512496708169508</v>
+        <v>0.5155201252196921</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>203361</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177267</v>
+        <v>176890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232056</v>
+        <v>230688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.42777155402008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3728810527656812</v>
+        <v>0.3720897150343334</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4881302999840908</v>
+        <v>0.4852526263340244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -1184,19 +1184,19 @@
         <v>207099</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>184041</v>
+        <v>184068</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>230688</v>
+        <v>229879</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4160359497272849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3697157102237003</v>
+        <v>0.3697693517133442</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4634233383330311</v>
+        <v>0.4617985106066265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>330</v>
@@ -1205,19 +1205,19 @@
         <v>410460</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>376023</v>
+        <v>370704</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>449426</v>
+        <v>446126</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.421768727655319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3863830617211619</v>
+        <v>0.3809169179722486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4618080784704673</v>
+        <v>0.4584173205530183</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>33577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21497</v>
+        <v>22038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48955</v>
+        <v>48238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07062991950362593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04521849267000667</v>
+        <v>0.04635665211185639</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1029773970533935</v>
+        <v>0.101469102102055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -1255,19 +1255,19 @@
         <v>44653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34251</v>
+        <v>33592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58784</v>
+        <v>60036</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08970168337317662</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06880692839524918</v>
+        <v>0.06748120839716766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.118090467638793</v>
+        <v>0.1206044986210438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -1276,19 +1276,19 @@
         <v>78230</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60862</v>
+        <v>61067</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>97519</v>
+        <v>100374</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.08038523198028483</v>
+        <v>0.08038523198028481</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06253839812063984</v>
+        <v>0.06274922650707318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1002054716039258</v>
+        <v>0.1031391320442563</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>9460</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4008</v>
+        <v>4136</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18822</v>
+        <v>20322</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01989971683194121</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008430322415719421</v>
+        <v>0.008700191580002088</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.039591465029281</v>
+        <v>0.04274728773457456</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1326,19 +1326,19 @@
         <v>12850</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7039</v>
+        <v>7093</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21151</v>
+        <v>22629</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0258140691089745</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01414111485934479</v>
+        <v>0.01424885230557931</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04248974509534614</v>
+        <v>0.04545890925412207</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -1347,19 +1347,19 @@
         <v>22310</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14308</v>
+        <v>13370</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34384</v>
+        <v>33788</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02292494066305285</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01470233055915403</v>
+        <v>0.01373823724516064</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03533166508006911</v>
+        <v>0.03471842697304648</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>308268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>281056</v>
+        <v>280003</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>335686</v>
+        <v>333842</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4974001591033267</v>
+        <v>0.4974001591033268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4534923509383977</v>
+        <v>0.4517944410255672</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5416410239392269</v>
+        <v>0.5386646059825669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -1472,19 +1472,19 @@
         <v>276114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>254584</v>
+        <v>253247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>297871</v>
+        <v>295899</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4438134373535811</v>
+        <v>0.4438134373535812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4092073592297382</v>
+        <v>0.407058426170657</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.478785356790781</v>
+        <v>0.4756158358041343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>609</v>
@@ -1493,19 +1493,19 @@
         <v>584382</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>548665</v>
+        <v>549821</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>618726</v>
+        <v>618336</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4705554322533544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4417958608998578</v>
+        <v>0.4427261113520311</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4982103158809604</v>
+        <v>0.497895770554053</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>230893</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>205318</v>
+        <v>208244</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>256110</v>
+        <v>259002</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3725527736052869</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3312879795694904</v>
+        <v>0.3360086965261028</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4132422814937842</v>
+        <v>0.4179079541528149</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>380</v>
@@ -1543,19 +1543,19 @@
         <v>270239</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>248329</v>
+        <v>250527</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>292672</v>
+        <v>292724</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.434371388015141</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3991539978817215</v>
+        <v>0.4026865394688105</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4704285174939224</v>
+        <v>0.470511696669499</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>596</v>
@@ -1564,19 +1564,19 @@
         <v>501132</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>467644</v>
+        <v>471615</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>536806</v>
+        <v>535404</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.403521337530998</v>
+        <v>0.4035213375309979</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3765562037460353</v>
+        <v>0.3797536473934353</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4322465912974706</v>
+        <v>0.4311173801092662</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>61851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47827</v>
+        <v>48013</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78368</v>
+        <v>79688</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09979803586038619</v>
+        <v>0.0997980358603862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07717001694268252</v>
+        <v>0.07747087525653067</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1264488111541828</v>
+        <v>0.1285786338794226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>91</v>
@@ -1614,19 +1614,19 @@
         <v>59481</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48701</v>
+        <v>47815</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72679</v>
+        <v>71600</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0956079132212676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07828050242332286</v>
+        <v>0.0768555153241544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1168215409873248</v>
+        <v>0.1150862736725814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>149</v>
@@ -1635,19 +1635,19 @@
         <v>121332</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101438</v>
+        <v>103118</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144593</v>
+        <v>141776</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09769895806569805</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08167959638415112</v>
+        <v>0.083032212478289</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1164290926839608</v>
+        <v>0.1141606210620206</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>18747</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10483</v>
+        <v>11201</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29780</v>
+        <v>31541</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03024903143100028</v>
+        <v>0.03024903143100029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01691439035328517</v>
+        <v>0.01807384285794373</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04805090434758584</v>
+        <v>0.05089275980655108</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -1685,19 +1685,19 @@
         <v>16305</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10586</v>
+        <v>10694</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24858</v>
+        <v>25387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02620726141001018</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01701507115963215</v>
+        <v>0.01718988633832252</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03995569128502013</v>
+        <v>0.04080597783176015</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1706,19 +1706,19 @@
         <v>35052</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25061</v>
+        <v>25872</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48228</v>
+        <v>49670</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02822427214994945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02017925494440921</v>
+        <v>0.02083225649161396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03883421660960627</v>
+        <v>0.03999519744224156</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>281793</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>256382</v>
+        <v>257499</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>310806</v>
+        <v>311179</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4039808269652149</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3675513167610538</v>
+        <v>0.3691529939832319</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4455740236884908</v>
+        <v>0.4461087705478359</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>356</v>
@@ -1831,19 +1831,19 @@
         <v>245582</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>225168</v>
+        <v>224616</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>265461</v>
+        <v>265239</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3362543120648819</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3083038024906034</v>
+        <v>0.307547928267082</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3634726180496463</v>
+        <v>0.3631692447850716</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>604</v>
@@ -1852,19 +1852,19 @@
         <v>527375</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>493097</v>
+        <v>494944</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>563928</v>
+        <v>562745</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3693395843700071</v>
+        <v>0.3693395843700073</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3453332922945309</v>
+        <v>0.3466269298042766</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3949393978172839</v>
+        <v>0.3941104416046962</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>310363</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>283084</v>
+        <v>281790</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>335956</v>
+        <v>337186</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4449389770238423</v>
+        <v>0.4449389770238422</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.405831394952911</v>
+        <v>0.4039755409716165</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4816283590666058</v>
+        <v>0.4833918137241112</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>569</v>
@@ -1902,19 +1902,19 @@
         <v>354843</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>333697</v>
+        <v>333764</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>376827</v>
+        <v>375715</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4858553941682182</v>
+        <v>0.4858553941682181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4569024790618829</v>
+        <v>0.456994932935164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5159572983686275</v>
+        <v>0.5144346063697093</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>876</v>
@@ -1923,19 +1923,19 @@
         <v>665205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>631848</v>
+        <v>631711</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>701808</v>
+        <v>702602</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4658671989249822</v>
+        <v>0.4658671989249824</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4425060243372941</v>
+        <v>0.4424098309190208</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4915017140158572</v>
+        <v>0.4920573407003463</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>89140</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>72559</v>
+        <v>73589</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>107710</v>
+        <v>109530</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1277911329905311</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1040213725580764</v>
+        <v>0.105498250842719</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1544136017816276</v>
+        <v>0.1570236346954142</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>170</v>
@@ -1973,19 +1973,19 @@
         <v>104978</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>90029</v>
+        <v>91149</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>119867</v>
+        <v>120194</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1437373778522455</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1232683454843151</v>
+        <v>0.1248025884191071</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1641236132651851</v>
+        <v>0.1645717171202147</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>261</v>
@@ -1994,19 +1994,19 @@
         <v>194117</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>173115</v>
+        <v>171232</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>220594</v>
+        <v>218654</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.135947432447991</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1212386361787123</v>
+        <v>0.119919773408137</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1544899449827168</v>
+        <v>0.1531315093419437</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>16245</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10013</v>
+        <v>9909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26651</v>
+        <v>24884</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02328906302041187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01435434712192096</v>
+        <v>0.01420552549063368</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03820651350992199</v>
+        <v>0.03567427240296279</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2044,19 +2044,19 @@
         <v>24943</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18108</v>
+        <v>17361</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34771</v>
+        <v>33474</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0341529159146545</v>
+        <v>0.03415291591465449</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02479351070313978</v>
+        <v>0.02377129223621663</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04760866795595312</v>
+        <v>0.04583292308371229</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -2065,19 +2065,19 @@
         <v>41188</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30238</v>
+        <v>30594</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53257</v>
+        <v>54324</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02884578425701956</v>
+        <v>0.02884578425701957</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.021176750619966</v>
+        <v>0.02142619668489577</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0372979298127604</v>
+        <v>0.03804515570813178</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>212723</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>191095</v>
+        <v>190668</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>238543</v>
+        <v>236668</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3510722980919329</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3153765826921708</v>
+        <v>0.3146725167116048</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3936844926120452</v>
+        <v>0.3905894420375753</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>276</v>
@@ -2190,19 +2190,19 @@
         <v>176871</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>158476</v>
+        <v>159206</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>193187</v>
+        <v>194532</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2937875223621108</v>
+        <v>0.2937875223621109</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.26323336562905</v>
+        <v>0.2644462114707452</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3208902401293872</v>
+        <v>0.3231229804026367</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>491</v>
@@ -2211,19 +2211,19 @@
         <v>389594</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>360754</v>
+        <v>360772</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>417310</v>
+        <v>417392</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3225221167367147</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2986470477326571</v>
+        <v>0.2986620138547523</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.34546676870845</v>
+        <v>0.3455340281397068</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>286397</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>260983</v>
+        <v>264037</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>308916</v>
+        <v>311342</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4726602467954581</v>
+        <v>0.4726602467954583</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4307177439592759</v>
+        <v>0.4357581351950046</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5098246507201174</v>
+        <v>0.5138289068812532</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>470</v>
@@ -2261,19 +2261,19 @@
         <v>280290</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>261146</v>
+        <v>259198</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>300719</v>
+        <v>299942</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4655704680267366</v>
+        <v>0.4655704680267367</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4337709040085619</v>
+        <v>0.4305349922156196</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4995028662641826</v>
+        <v>0.4982130220769813</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>789</v>
@@ -2282,19 +2282,19 @@
         <v>566687</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>536825</v>
+        <v>537265</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>596674</v>
+        <v>595874</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4691267692346828</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4444060507030154</v>
+        <v>0.4447699781851548</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4939514514720807</v>
+        <v>0.4932893852287276</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>89976</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>74742</v>
+        <v>74516</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105460</v>
+        <v>106570</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1484931305380484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1233511112948346</v>
+        <v>0.1229785424569403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1740472236757939</v>
+        <v>0.1758792889189171</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>210</v>
@@ -2332,19 +2332,19 @@
         <v>121270</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>106026</v>
+        <v>107025</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>136606</v>
+        <v>138715</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2014336469729736</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1761126080667577</v>
+        <v>0.177772306575481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2269061208591628</v>
+        <v>0.2304091277004613</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>318</v>
@@ -2353,19 +2353,19 @@
         <v>211246</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>189663</v>
+        <v>191345</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>232832</v>
+        <v>232932</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1748781748364617</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1570108922041814</v>
+        <v>0.1584031848731144</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.192748036337044</v>
+        <v>0.1928311079152466</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>16829</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10267</v>
+        <v>10560</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>26873</v>
+        <v>26251</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02777432457456067</v>
+        <v>0.02777432457456068</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01694402553206361</v>
+        <v>0.01742826832159416</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04434963400506661</v>
+        <v>0.04332452268040433</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>36</v>
@@ -2403,19 +2403,19 @@
         <v>23605</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16651</v>
+        <v>16762</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31649</v>
+        <v>31795</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.03920836263817889</v>
+        <v>0.0392083626381789</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0276575083919978</v>
+        <v>0.0278419374432468</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05257059779437699</v>
+        <v>0.05281244926768282</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>55</v>
@@ -2424,19 +2424,19 @@
         <v>40434</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30539</v>
+        <v>31200</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>53037</v>
+        <v>52306</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.03347293919214087</v>
+        <v>0.03347293919214088</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02528147024219438</v>
+        <v>0.02582859589506241</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04390607329156761</v>
+        <v>0.04330111910199155</v>
       </c>
     </row>
     <row r="28">
@@ -2528,19 +2528,19 @@
         <v>138758</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>124545</v>
+        <v>122980</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>155799</v>
+        <v>156653</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3422907850902013</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3072292372834722</v>
+        <v>0.3033700702147583</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3843283129776461</v>
+        <v>0.3864331073596192</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>238</v>
@@ -2549,19 +2549,19 @@
         <v>128203</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>115613</v>
+        <v>114239</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>142569</v>
+        <v>142983</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2940943643442633</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2652128431217586</v>
+        <v>0.262061938438694</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.327050630786532</v>
+        <v>0.3279992930701712</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>426</v>
@@ -2570,19 +2570,19 @@
         <v>266961</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>246351</v>
+        <v>246911</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>290510</v>
+        <v>288152</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3173177222833886</v>
+        <v>0.3173177222833885</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2928198278159874</v>
+        <v>0.2934856585416158</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.345308307909114</v>
+        <v>0.3425060673428365</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>191979</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>175653</v>
+        <v>174501</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>208105</v>
+        <v>209415</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4735774368778928</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4333045586208385</v>
+        <v>0.4304615380357084</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.513356925770166</v>
+        <v>0.5165873589581986</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>401</v>
@@ -2620,19 +2620,19 @@
         <v>216168</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>199924</v>
+        <v>199913</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>229910</v>
+        <v>231215</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4958853119172273</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4586214283209253</v>
+        <v>0.4585949408424789</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.527408421223683</v>
+        <v>0.5304025480909166</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>668</v>
@@ -2641,19 +2641,19 @@
         <v>408148</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>384172</v>
+        <v>383066</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>430455</v>
+        <v>431060</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4851363027816599</v>
+        <v>0.4851363027816598</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4566379608460059</v>
+        <v>0.4553237849755234</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5116510853963712</v>
+        <v>0.512370769329782</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>65161</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>54278</v>
+        <v>54124</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>79007</v>
+        <v>78933</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1607393758978968</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1338935062580943</v>
+        <v>0.1335140309695119</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1948945370687458</v>
+        <v>0.1947127205447328</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>158</v>
@@ -2691,19 +2691,19 @@
         <v>79140</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>67879</v>
+        <v>68151</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>89590</v>
+        <v>91014</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1815449992359804</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1557122922319335</v>
+        <v>0.1563364905257529</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2055181064949013</v>
+        <v>0.2087831843726718</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>258</v>
@@ -2712,19 +2712,19 @@
         <v>144301</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>127151</v>
+        <v>127229</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>161314</v>
+        <v>161590</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1715198473585423</v>
+        <v>0.1715198473585424</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1511355864642078</v>
+        <v>0.1512286395102541</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1917421098570057</v>
+        <v>0.1920705168742414</v>
       </c>
     </row>
     <row r="32">
@@ -2741,19 +2741,19 @@
         <v>9483</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5452</v>
+        <v>5646</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16773</v>
+        <v>16587</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02339240213400916</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01344870535656527</v>
+        <v>0.0139285742902599</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04137627166160737</v>
+        <v>0.04091820078296836</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2762,19 +2762,19 @@
         <v>12413</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7997</v>
+        <v>8276</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18081</v>
+        <v>18675</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02847532450252907</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01834495882451764</v>
+        <v>0.0189853094887355</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04147783048898406</v>
+        <v>0.04284019802293355</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -2783,19 +2783,19 @@
         <v>21896</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15714</v>
+        <v>15402</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30548</v>
+        <v>29837</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02602612757640935</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01867784350094656</v>
+        <v>0.01830748981157852</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03631012056179064</v>
+        <v>0.03546545605179299</v>
       </c>
     </row>
     <row r="33">
@@ -2887,19 +2887,19 @@
         <v>75807</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>63589</v>
+        <v>63906</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>88570</v>
+        <v>90349</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2481733026933847</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2081729830611645</v>
+        <v>0.2092118104077298</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.28995547330672</v>
+        <v>0.2957787280507351</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>124</v>
@@ -2908,19 +2908,19 @@
         <v>70682</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>58726</v>
+        <v>60144</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>83768</v>
+        <v>83624</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1559626476827411</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1295802558660535</v>
+        <v>0.1327101906132127</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1848371612178419</v>
+        <v>0.1845198493035111</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>229</v>
@@ -2929,19 +2929,19 @@
         <v>146489</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>129755</v>
+        <v>130322</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>166392</v>
+        <v>163526</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1930896235767013</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1710317016047712</v>
+        <v>0.1717799081063407</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2193238495576389</v>
+        <v>0.2155457662028317</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>161418</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>146394</v>
+        <v>146693</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>175922</v>
+        <v>174863</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5284396819792648</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4792564933546997</v>
+        <v>0.4802360735665812</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5759233125166674</v>
+        <v>0.5724567032767769</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>441</v>
@@ -2979,19 +2979,19 @@
         <v>239013</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>223127</v>
+        <v>224465</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>255792</v>
+        <v>253742</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5273909010884064</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4923371948902301</v>
+        <v>0.4952902633859791</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5644153959667132</v>
+        <v>0.5598913293003375</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>678</v>
@@ -3000,19 +3000,19 @@
         <v>400430</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>378739</v>
+        <v>378455</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>420691</v>
+        <v>421539</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.5278131740117302</v>
+        <v>0.5278131740117303</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4992216220757815</v>
+        <v>0.4988479235735526</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5545193032790176</v>
+        <v>0.5556367370226587</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>59981</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49119</v>
+        <v>49105</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71231</v>
+        <v>72042</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1963623714357761</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1608033004370047</v>
+        <v>0.1607576922583676</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2331903140412525</v>
+        <v>0.2358469300973806</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>246</v>
@@ -3050,19 +3050,19 @@
         <v>121332</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>108352</v>
+        <v>108911</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>135203</v>
+        <v>136554</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2677241634857598</v>
+        <v>0.2677241634857599</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2390818850120222</v>
+        <v>0.240315608598413</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2983304492529236</v>
+        <v>0.3013118020879611</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>341</v>
@@ -3071,19 +3071,19 @@
         <v>181313</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>164365</v>
+        <v>164833</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>199351</v>
+        <v>199835</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2389916104756578</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2166523990401126</v>
+        <v>0.2172684309326634</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2627677391797573</v>
+        <v>0.2634054564696957</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>8255</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4767</v>
+        <v>4550</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14866</v>
+        <v>13498</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02702464389157435</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01560460201532578</v>
+        <v>0.01489569280223685</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0486680760793185</v>
+        <v>0.04419023251385183</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>45</v>
@@ -3121,19 +3121,19 @@
         <v>22172</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16143</v>
+        <v>16043</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>29187</v>
+        <v>29573</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.0489222877430926</v>
+        <v>0.04892228774309261</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03561903054787571</v>
+        <v>0.03539865580704411</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06440212224449429</v>
+        <v>0.06525338179582525</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>59</v>
@@ -3142,19 +3142,19 @@
         <v>30426</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23608</v>
+        <v>23141</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>39055</v>
+        <v>39639</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.04010559193591065</v>
+        <v>0.04010559193591066</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03111766775012489</v>
+        <v>0.03050211906931432</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05147877044461795</v>
+        <v>0.05224891108480108</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>1513044</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1450404</v>
+        <v>1448498</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1579261</v>
+        <v>1585067</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4307381886268605</v>
+        <v>0.4307381886268606</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4129054789151938</v>
+        <v>0.4123630386398477</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.449589142698041</v>
+        <v>0.4512419471670017</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1669</v>
@@ -3267,19 +3267,19 @@
         <v>1331827</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1281274</v>
+        <v>1280262</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1386930</v>
+        <v>1387966</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3595698982142326</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3459212384353534</v>
+        <v>0.3456481749619632</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3744466156887806</v>
+        <v>0.3747264367984442</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2930</v>
@@ -3288,19 +3288,19 @@
         <v>2844872</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2758009</v>
+        <v>2763992</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2930870</v>
+        <v>2934465</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3942109207358679</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3821744636909282</v>
+        <v>0.3830034585482122</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4061276670809728</v>
+        <v>0.4066257829534951</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>1494460</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1432733</v>
+        <v>1431694</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1560528</v>
+        <v>1564499</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4254475862119282</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4078750678906184</v>
+        <v>0.407579110857184</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4442561026301529</v>
+        <v>0.4453864785212714</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2526</v>
@@ -3338,19 +3338,19 @@
         <v>1693913</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1641877</v>
+        <v>1640537</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1753795</v>
+        <v>1749604</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4573265666087384</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4432777750606918</v>
+        <v>0.4429159833549037</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4734936392798559</v>
+        <v>0.4723622901658014</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4053</v>
@@ -3359,19 +3359,19 @@
         <v>3188373</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3109682</v>
+        <v>3105587</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3278004</v>
+        <v>3274837</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.4418095368825793</v>
+        <v>0.4418095368825792</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.4309054574118611</v>
+        <v>0.4303380384694795</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4542296582668883</v>
+        <v>0.4537907308243793</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>426154</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>388620</v>
+        <v>383810</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>467432</v>
+        <v>468421</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1213187353987604</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1106336496870671</v>
+        <v>0.1092642627995567</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1330698804533241</v>
+        <v>0.1333516961310523</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>939</v>
@@ -3409,19 +3409,19 @@
         <v>562520</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>530017</v>
+        <v>531745</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>601078</v>
+        <v>599392</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.151870334543739</v>
+        <v>0.1518703345437391</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1430953093535298</v>
+        <v>0.1435618118093875</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.162280532136376</v>
+        <v>0.1618253373858431</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1425</v>
@@ -3430,19 +3430,19 @@
         <v>988673</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>936790</v>
+        <v>937700</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1047927</v>
+        <v>1042212</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1369994049778184</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1298099826896642</v>
+        <v>0.1299361269670918</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1452102279007052</v>
+        <v>0.1444182163696284</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>79019</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>63246</v>
+        <v>62815</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>98205</v>
+        <v>97537</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02249548976245088</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01800508817111636</v>
+        <v>0.01788223785904175</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02795724835839889</v>
+        <v>0.02776723113268535</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>176</v>
@@ -3480,19 +3480,19 @@
         <v>115686</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>99144</v>
+        <v>99733</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>132831</v>
+        <v>136848</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03123320063328991</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02676713872223161</v>
+        <v>0.02692613650156579</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03586205813343375</v>
+        <v>0.03694650436428704</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>262</v>
@@ -3501,19 +3501,19 @@
         <v>194705</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>171197</v>
+        <v>170989</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>220643</v>
+        <v>219249</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02698013740373445</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02372261272571326</v>
+        <v>0.02369376282714008</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03057427023232233</v>
+        <v>0.03038106582083199</v>
       </c>
     </row>
     <row r="43">
